--- a/data/Subset1_WithDialogActs/Math AU 3 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math AU 3 transcript.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2373,12 +2373,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3217,12 +3217,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3469,12 +3469,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3511,12 +3511,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3805,12 +3805,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3931,12 +3931,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3973,12 +3973,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4015,12 +4015,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4099,12 +4099,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4687,12 +4687,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5065,12 +5065,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5569,12 +5569,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5615,12 +5615,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5699,12 +5699,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5783,12 +5783,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5825,12 +5825,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5867,12 +5867,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6077,12 +6077,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6249,12 +6249,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6291,12 +6291,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6631,12 +6631,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6799,12 +6799,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7177,12 +7177,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7429,12 +7429,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7471,12 +7471,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7597,12 +7597,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7723,12 +7723,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7807,12 +7807,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7933,12 +7933,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8017,12 +8017,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8105,12 +8105,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8189,12 +8189,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8739,12 +8739,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9033,12 +9033,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9327,12 +9327,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9411,12 +9411,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9495,12 +9495,12 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9621,12 +9621,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9831,12 +9831,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9919,12 +9919,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10171,12 +10171,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10255,12 +10255,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10675,12 +10675,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10973,12 +10973,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11141,12 +11141,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11183,12 +11183,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11351,12 +11351,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11649,12 +11649,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11901,12 +11901,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11989,12 +11989,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12031,12 +12031,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12241,12 +12241,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -13085,12 +13085,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13127,12 +13127,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13337,12 +13337,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13421,12 +13421,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13589,12 +13589,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14345,12 +14345,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14555,12 +14555,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14723,12 +14723,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14807,12 +14807,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14933,12 +14933,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14975,12 +14975,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15017,12 +15017,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15059,12 +15059,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15441,12 +15441,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15823,12 +15823,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15991,12 +15991,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16033,12 +16033,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16453,12 +16453,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17171,12 +17171,12 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17465,12 +17465,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17511,12 +17511,12 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17595,12 +17595,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18267,12 +18267,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19195,12 +19195,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19619,12 +19619,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20295,12 +20295,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20673,12 +20673,12 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20841,12 +20841,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20883,12 +20883,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20925,12 +20925,12 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20967,12 +20967,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21555,12 +21555,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21723,12 +21723,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21975,12 +21975,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22101,12 +22101,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22647,12 +22647,12 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23025,12 +23025,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23277,12 +23277,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23487,12 +23487,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23571,12 +23571,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23949,12 +23949,12 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24117,12 +24117,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24957,12 +24957,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25125,12 +25125,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25503,12 +25503,12 @@
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25587,12 +25587,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25881,12 +25881,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26259,12 +26259,12 @@
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26301,12 +26301,12 @@
       <c r="H614" t="inlineStr"/>
       <c r="I614" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26805,12 +26805,12 @@
       <c r="H626" t="inlineStr"/>
       <c r="I626" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26847,12 +26847,12 @@
       <c r="H627" t="inlineStr"/>
       <c r="I627" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26889,12 +26889,12 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26931,12 +26931,12 @@
       <c r="H629" t="inlineStr"/>
       <c r="I629" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27141,12 +27141,12 @@
       <c r="H634" t="inlineStr"/>
       <c r="I634" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
